--- a/Radha_SQL_PROJECT.xlsx
+++ b/Radha_SQL_PROJECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D885227-6C89-4AE6-94DD-12B79444B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74BF7B-2AE7-4794-8531-96BB9E5F4F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6DF8A1A-5AE9-4EFC-9065-6AA29255C77D}"/>
   </bookViews>
@@ -3488,7 +3488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ECAFAC-5940-425B-8ED1-2E00EAD6F2E5}">
   <dimension ref="A1:AE3824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3223" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="B1841" sqref="B1841"/>
     </sheetView>
   </sheetViews>
@@ -30681,17 +30681,17 @@
         <v>392</v>
       </c>
     </row>
-    <row r="1887" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1887" spans="2:7" ht="63" x14ac:dyDescent="0.25">
       <c r="C1887" s="28" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="1888" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1888" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C1888" s="28" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="1889" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="C1889" s="25" t="s">
         <v>421</v>
       </c>
